--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_127.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_127.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:02:22.380000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09807692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:06.840000', '0:00:12.460000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.141025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.585419, 21.24102)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(52.711123, 59.224321)]</t>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E', 'E']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(30.378072, 38.911405)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.334625, 18.779705)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:32.200000', '0:00:33.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:00:56.440000', '0:01:06.340000'), ('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1696969696969697</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'F:min/5']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(75.058526, 99.567188)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(41.384331, 46.388231)]</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.874217, 50.277573)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.940612, 6.577619)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
